--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,18 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -73,24 +70,24 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -100,61 +97,67 @@
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
+    <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -634,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8561643835616438</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7837837837837838</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,16 +808,16 @@
         <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5098039215686274</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.9216710182767625</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4476744186046512</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C9">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,78 +937,54 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.423728813559322</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>109</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8943661971830986</v>
+      </c>
+      <c r="L10">
+        <v>127</v>
+      </c>
+      <c r="M10">
+        <v>127</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>34</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.9014084507042254</v>
-      </c>
-      <c r="L10">
-        <v>128</v>
-      </c>
-      <c r="M10">
-        <v>128</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2483221476510067</v>
-      </c>
-      <c r="C11">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>112</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="K11">
         <v>0.8936170212765957</v>
@@ -1031,7 +1010,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>0.8928571428571429</v>
@@ -1057,16 +1036,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1078,12 +1057,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>0.8867924528301887</v>
@@ -1109,16 +1088,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.8828125</v>
+        <v>0.88125</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1130,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.86875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L16">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1156,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.8658536585365854</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1182,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1208,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1234,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1260,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1286,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1312,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.7382352941176471</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L23">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1338,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1369,16 +1348,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.7112970711297071</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L25">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="M25">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1390,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.7050847457627119</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L26">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M26">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1416,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6808510638297872</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L27">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="M27">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1442,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6741573033707865</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1468,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6461538461538462</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1494,12 +1473,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>0.6285714285714286</v>
@@ -1525,7 +1504,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>0.6078431372549019</v>
@@ -1551,28 +1530,80 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>0.6067415730337079</v>
+      </c>
+      <c r="L32">
+        <v>54</v>
+      </c>
+      <c r="M32">
+        <v>54</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K32">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="L32">
-        <v>30</v>
-      </c>
-      <c r="M32">
-        <v>30</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+      <c r="K33">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="L33">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>35</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="K34">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="L34">
+        <v>34</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
